--- a/doc/古董局中局线上辅助工具测试记录表.xlsx
+++ b/doc/古董局中局线上辅助工具测试记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\egret\MysteryOfAntiques\moa-client\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{83E0A029-5ACB-43D9-AEE7-1AE1BE648945}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{B14FD4BB-92D4-4FC7-9BB8-82D2C996BA09}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -975,13 +975,18 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AA32A73C-A25F-4386-9CFA-3C3A3C8A2F1A}" diskRevisions="1" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{12F8C2A1-AB8D-4566-822F-C35BAAF2BDC0}" diskRevisions="1" version="3">
   <header guid="{BF5BFB95-C6CD-48C3-A8DA-F064974C904B}" dateTime="2018-08-09T11:48:57" maxSheetId="2" userName="Juntao Wu" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
   <header guid="{AA32A73C-A25F-4386-9CFA-3C3A3C8A2F1A}" dateTime="2018-08-09T11:51:26" maxSheetId="2" userName="Juntao Wu" r:id="rId2">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{12F8C2A1-AB8D-4566-822F-C35BAAF2BDC0}" dateTime="2018-08-09T15:54:47" maxSheetId="2" userName="Juntao Wu" r:id="rId3">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -1043,9 +1048,23 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="A5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{AA32A73C-A25F-4386-9CFA-3C3A3C8A2F1A}" name="Juntao Wu" id="-237822734" dateTime="2018-08-09T11:55:48"/>
+  <userInfo guid="{12F8C2A1-AB8D-4566-822F-C35BAAF2BDC0}" name="Juntao Wu" id="-237822734" dateTime="2018-08-09T11:55:48"/>
 </users>
 </file>
 
@@ -1372,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1492,7 +1511,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="279.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">

--- a/doc/古董局中局线上辅助工具测试记录表.xlsx
+++ b/doc/古董局中局线上辅助工具测试记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\egret\MysteryOfAntiques\moa-client\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{B14FD4BB-92D4-4FC7-9BB8-82D2C996BA09}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{012044EC-4AC5-4E6E-9C81-B668DA75951E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -975,7 +975,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{12F8C2A1-AB8D-4566-822F-C35BAAF2BDC0}" diskRevisions="1" version="3">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E2E40FC4-EBC7-4571-8984-95657B5195EA}" diskRevisions="1" version="4">
   <header guid="{BF5BFB95-C6CD-48C3-A8DA-F064974C904B}" dateTime="2018-08-09T11:48:57" maxSheetId="2" userName="Juntao Wu" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -987,6 +987,11 @@
     </sheetIdMap>
   </header>
   <header guid="{12F8C2A1-AB8D-4566-822F-C35BAAF2BDC0}" dateTime="2018-08-09T15:54:47" maxSheetId="2" userName="Juntao Wu" r:id="rId3">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E2E40FC4-EBC7-4571-8984-95657B5195EA}" dateTime="2018-08-09T18:26:04" maxSheetId="2" userName="Juntao Wu" r:id="rId4">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -1062,10 +1067,22 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="A12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{12F8C2A1-AB8D-4566-822F-C35BAAF2BDC0}" name="Juntao Wu" id="-237822734" dateTime="2018-08-09T11:55:48"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1391,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1654,7 +1671,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="49.5">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
